--- a/Results/RQ4/difficulty.xlsx
+++ b/Results/RQ4/difficulty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HowFar\replication\Results\RQ4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubDesktopProjects\TypeAnnotationGeneration\Results\RQ4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE27A94-DC4D-49C6-9E5B-A85E5DBFE29A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BE3A78-2A1B-4D18-A31D-6F6F3F110E16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3585" yWindow="3225" windowWidth="28245" windowHeight="16095" xr2:uid="{5F66A62F-D53E-574A-A12D-A99AA04019C8}"/>
   </bookViews>
@@ -27,22 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
-    <t>3d-ascii-game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itolapi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>koel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail_handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Control</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,6 +40,22 @@
   </si>
   <si>
     <t>Experimental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hony-random</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipyrest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lzdeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pendant</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +115,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,6 +139,9 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,42 +460,42 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -501,19 +504,19 @@
       </c>
       <c r="B3" s="5">
         <f>AVERAGE(C3:F3)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -522,18 +525,18 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:B9" si="0">AVERAGE(C4:F4)</f>
-        <v>1.75</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
         <v>3</v>
       </c>
     </row>
@@ -543,19 +546,19 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
+        <v>2.5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -564,18 +567,18 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
         <v>3</v>
       </c>
     </row>
@@ -587,16 +590,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
         <v>3</v>
       </c>
     </row>
@@ -606,19 +609,19 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
+        <v>1.75</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -629,34 +632,34 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5">
-        <f t="shared" ref="B10:F10" si="1">AVERAGE(B3:B9)</f>
-        <v>1.9642857142857142</v>
+        <f t="shared" ref="B10" si="1">AVERAGE(B3:B9)</f>
+        <v>2.2142857142857144</v>
       </c>
       <c r="C10" s="4">
         <f>AVERAGE(C3:C9)</f>
-        <v>1.5714285714285714</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="D10" s="4">
         <f>AVERAGE(D3:D9)</f>
-        <v>1.8571428571428572</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="E10" s="4">
         <f>AVERAGE(E3:E9)</f>
@@ -687,7 +690,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
@@ -697,22 +700,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -721,19 +724,19 @@
       </c>
       <c r="B15" s="5">
         <f>AVERAGE(C15:F15)</f>
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>4</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -742,19 +745,19 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" ref="B16:B21" si="2">AVERAGE(C16:F16)</f>
-        <v>1.5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
         <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -763,18 +766,18 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8">
         <v>3</v>
       </c>
     </row>
@@ -784,19 +787,19 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -805,18 +808,18 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="2"/>
-        <v>1.75</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
         <v>3</v>
       </c>
     </row>
@@ -826,18 +829,18 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
         <v>2</v>
       </c>
     </row>
@@ -847,44 +850,44 @@
       </c>
       <c r="B21" s="5">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
+        <v>2.5</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" ref="B22:F22" si="3">AVERAGE(B15:B21)</f>
-        <v>2</v>
+        <f t="shared" ref="B22" si="3">AVERAGE(B15:B21)</f>
+        <v>2.25</v>
       </c>
       <c r="C22" s="4">
         <f>AVERAGE(C15:C21)</f>
-        <v>2.2857142857142856</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="D22" s="4">
         <f>AVERAGE(D15:D21)</f>
-        <v>1.8571428571428572</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4">
         <f>AVERAGE(E15:E21)</f>
-        <v>1.5714285714285714</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="F22" s="4">
         <f>AVERAGE(F15:F21)</f>
-        <v>2.2857142857142856</v>
+        <v>2.4285714285714284</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
